--- a/NFS2.xlsx
+++ b/NFS2.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="600" firstSheet="0" activeTab="0"/>
+    <workbookView windowWidth="20385" windowHeight="8475"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Sheet3" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44">
   <si>
     <t>product name</t>
   </si>
@@ -52,7 +52,7 @@
     <t>MATTAR PANEER</t>
   </si>
   <si>
-    <t>PANEER BHUJI</t>
+    <t>PANEER BHURJI</t>
   </si>
   <si>
     <t>SHAHI PANEER</t>
@@ -115,10 +115,10 @@
     <t>BUTTER ROTI</t>
   </si>
   <si>
-    <t>EGG PANTHA</t>
-  </si>
-  <si>
-    <t>ALOO TANDOORI PARATHA</t>
+    <t>EGG PARANTHA</t>
+  </si>
+  <si>
+    <t>ALOO TANDOORI PARANTHA</t>
   </si>
   <si>
     <t>PANEER PARANTHA</t>
@@ -155,629 +155,1451 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="22">
     <font>
       <sz val="12"/>
       <name val="Times New Roman"/>
-      <family val="1"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+  <borders count="9">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="49">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="49">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Currency" xfId="3" builtinId="4"/>
+    <cellStyle name="Comma[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Percent" xfId="5" builtinId="5"/>
+    <cellStyle name="Currency[0]" xfId="6" builtinId="7"/>
+    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
+    <cellStyle name="Note" xfId="9" builtinId="10"/>
+    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:C42"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="2"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="28.7028301886792"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.98584905660377"/>
+    <col min="1" max="1" width="28.7"/>
+    <col min="2" max="1025" width="8.98333333333333"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="0" t="n">
+      <c r="B2">
         <v>90</v>
       </c>
-      <c r="C2" s="0" t="n">
+      <c r="C2">
         <v>100</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="0" t="n">
+      <c r="B3">
         <v>80</v>
       </c>
-      <c r="C3" s="0" t="n">
+      <c r="C3">
         <v>90</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="0" t="n">
+      <c r="B4">
         <v>80</v>
       </c>
-      <c r="C4" s="0" t="n">
+      <c r="C4">
         <v>90</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="0" t="n">
+      <c r="B5">
         <v>90</v>
       </c>
-      <c r="C5" s="0" t="n">
+      <c r="C5">
         <v>100</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="0" t="n">
+      <c r="B6">
         <v>70</v>
       </c>
-      <c r="C6" s="0" t="n">
+      <c r="C6">
         <v>80</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="0" t="n">
+      <c r="B7">
         <v>80</v>
       </c>
-      <c r="C7" s="0" t="n">
+      <c r="C7">
         <v>90</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="0" t="n">
+      <c r="B8">
         <v>90</v>
       </c>
-      <c r="C8" s="0" t="n">
+      <c r="C8">
         <v>100</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="0" t="n">
+      <c r="B9">
         <v>70</v>
       </c>
-      <c r="C9" s="0" t="n">
+      <c r="C9">
         <v>80</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="0" t="n">
+      <c r="B10">
         <v>100</v>
       </c>
-      <c r="C10" s="0" t="n">
+      <c r="C10">
         <v>120</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="0" t="n">
+      <c r="B11">
         <v>70</v>
       </c>
-      <c r="C11" s="0" t="n">
+      <c r="C11">
         <v>80</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="0" t="n">
+      <c r="B12">
         <v>70</v>
       </c>
-      <c r="C12" s="0" t="n">
+      <c r="C12">
         <v>80</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="0" t="n">
+      <c r="B13">
         <v>100</v>
       </c>
-      <c r="C13" s="0" t="n">
+      <c r="C13">
         <v>120</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="0" t="n">
+      <c r="B14">
         <v>90</v>
       </c>
-      <c r="C14" s="0" t="n">
+      <c r="C14">
         <v>100</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="0" t="n">
+      <c r="B15">
         <v>80</v>
       </c>
-      <c r="C15" s="0" t="n">
+      <c r="C15">
         <v>90</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="0" t="n">
+      <c r="B16">
         <v>60</v>
       </c>
-      <c r="C16" s="0" t="n">
+      <c r="C16">
         <v>70</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="0" t="n">
+      <c r="B17">
         <v>50</v>
       </c>
-      <c r="C17" s="0" t="n">
+      <c r="C17">
         <v>60</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="0" t="n">
+      <c r="B18">
         <v>50</v>
       </c>
-      <c r="C18" s="0" t="n">
+      <c r="C18">
         <v>60</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="0" t="n">
+      <c r="B19">
         <v>50</v>
       </c>
-      <c r="C19" s="0" t="n">
+      <c r="C19">
         <v>60</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="0" t="n">
+      <c r="B20">
         <v>30</v>
       </c>
-      <c r="C20" s="0" t="n">
+      <c r="C20">
         <v>35</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="0" t="n">
+      <c r="B21">
         <v>60</v>
       </c>
-      <c r="C21" s="0" t="n">
+      <c r="C21">
         <v>70</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
         <v>23</v>
       </c>
-      <c r="B22" s="0" t="n">
+      <c r="B22">
         <v>40</v>
       </c>
-      <c r="C22" s="0" t="n">
+      <c r="C22">
         <v>50</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
         <v>24</v>
       </c>
-      <c r="B23" s="0" t="n">
+      <c r="B23">
         <v>70</v>
       </c>
-      <c r="C23" s="0" t="n">
+      <c r="C23">
         <v>80</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
         <v>25</v>
       </c>
-      <c r="B24" s="0" t="n">
+      <c r="B24">
         <v>50</v>
       </c>
-      <c r="C24" s="0" t="n">
+      <c r="C24">
         <v>60</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
         <v>26</v>
       </c>
-      <c r="B25" s="0" t="n">
+      <c r="B25">
         <v>30</v>
       </c>
-      <c r="C25" s="0" t="n">
+      <c r="C25">
         <v>40</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
         <v>27</v>
       </c>
-      <c r="B26" s="0" t="n">
+      <c r="B26">
         <v>30</v>
       </c>
-      <c r="C26" s="0" t="n">
+      <c r="C26">
         <v>40</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
         <v>28</v>
       </c>
-      <c r="B27" s="0" t="n">
+      <c r="B27">
         <v>20</v>
       </c>
-      <c r="C27" s="0" t="n">
+      <c r="C27">
         <v>25</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
         <v>29</v>
       </c>
-      <c r="B28" s="0" t="n">
+      <c r="B28">
         <v>15</v>
       </c>
-      <c r="C28" s="0" t="n">
+      <c r="C28">
         <v>20</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
         <v>30</v>
       </c>
-      <c r="B29" s="0" t="n">
+      <c r="B29">
         <v>5</v>
       </c>
-      <c r="C29" s="0" t="n">
+      <c r="C29">
         <v>6</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
         <v>31</v>
       </c>
-      <c r="B30" s="0" t="n">
+      <c r="B30">
         <v>8</v>
       </c>
-      <c r="C30" s="0" t="n">
+      <c r="C30">
         <v>10</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="s">
+    <row r="31" spans="1:3">
+      <c r="A31" t="s">
         <v>32</v>
       </c>
-      <c r="B31" s="0" t="n">
+      <c r="B31">
         <v>30</v>
       </c>
-      <c r="C31" s="0" t="n">
+      <c r="C31">
         <v>35</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="s">
+    <row r="32" spans="1:3">
+      <c r="A32" t="s">
         <v>33</v>
       </c>
-      <c r="B32" s="0" t="n">
+      <c r="B32">
         <v>30</v>
       </c>
-      <c r="C32" s="0" t="n">
+      <c r="C32">
         <v>35</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="s">
+    <row r="33" spans="1:3">
+      <c r="A33" t="s">
         <v>34</v>
       </c>
-      <c r="B33" s="0" t="n">
+      <c r="B33">
         <v>30</v>
       </c>
-      <c r="C33" s="0" t="n">
+      <c r="C33">
         <v>35</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="s">
+    <row r="34" spans="1:3">
+      <c r="A34" t="s">
         <v>35</v>
       </c>
-      <c r="B34" s="0" t="n">
+      <c r="B34">
         <v>15</v>
       </c>
-      <c r="C34" s="0" t="n">
+      <c r="C34">
         <v>20</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="s">
+    <row r="35" spans="1:3">
+      <c r="A35" t="s">
         <v>36</v>
       </c>
-      <c r="B35" s="0" t="n">
+      <c r="B35">
         <v>50</v>
       </c>
-      <c r="C35" s="0" t="n">
+      <c r="C35">
         <v>60</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="s">
+    <row r="36" spans="1:3">
+      <c r="A36" t="s">
         <v>37</v>
       </c>
-      <c r="B36" s="0" t="n">
+      <c r="B36">
         <v>30</v>
       </c>
-      <c r="C36" s="0" t="n">
+      <c r="C36">
         <v>35</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="s">
+    <row r="37" spans="1:3">
+      <c r="A37" t="s">
         <v>38</v>
       </c>
-      <c r="B37" s="0" t="n">
+      <c r="B37">
         <v>50</v>
       </c>
-      <c r="C37" s="0" t="n">
+      <c r="C37">
         <v>60</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="s">
+    <row r="38" spans="1:3">
+      <c r="A38" t="s">
         <v>39</v>
       </c>
-      <c r="B38" s="0" t="n">
+      <c r="B38">
         <v>60</v>
       </c>
-      <c r="C38" s="0" t="n">
+      <c r="C38">
         <v>70</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="s">
+    <row r="39" spans="1:3">
+      <c r="A39" t="s">
         <v>40</v>
       </c>
-      <c r="B39" s="0" t="n">
+      <c r="B39">
         <v>70</v>
       </c>
-      <c r="C39" s="0" t="n">
+      <c r="C39">
         <v>80</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="s">
+    <row r="40" spans="1:3">
+      <c r="A40" t="s">
         <v>41</v>
       </c>
-      <c r="B40" s="0" t="n">
+      <c r="B40">
         <v>10</v>
       </c>
-      <c r="C40" s="0" t="n">
+      <c r="C40">
         <v>12</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="s">
+    <row r="41" spans="1:3">
+      <c r="A41" t="s">
         <v>42</v>
       </c>
-      <c r="B41" s="0" t="n">
+      <c r="B41">
         <v>35</v>
       </c>
-      <c r="C41" s="0" t="n">
+      <c r="C41">
         <v>35</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="s">
+    <row r="42" spans="1:3">
+      <c r="A42" t="s">
         <v>43</v>
       </c>
-      <c r="B42" s="0" t="n">
+      <c r="B42">
         <v>20</v>
       </c>
-      <c r="C42" s="0" t="n">
+      <c r="C42">
         <v>21</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511111111111111" footer="0.511111111111111"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.98584905660377"/>
+    <col min="1" max="1025" width="8.98333333333333"/>
   </cols>
   <sheetData/>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511111111111111" footer="0.511111111111111"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.98584905660377"/>
+    <col min="1" max="1025" width="8.98333333333333"/>
   </cols>
   <sheetData/>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511111111111111" footer="0.511111111111111"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>